--- a/notebooks/ZMYM3/input/ZMYM3_individuals.xlsx
+++ b/notebooks/ZMYM3/input/ZMYM3_individuals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/ZMYM3/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6994FB-C308-8745-9A17-CBD906B7CE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9620A195-FE31-0740-ABB4-AD6C1EC160A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{392C50DA-26D1-F247-A13E-848ED8A6E3AA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>PMID</t>
   </si>
@@ -83,9 +83,6 @@
     <t>str</t>
   </si>
   <si>
-    <t>optional str</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -201,16 +198,56 @@
   </si>
   <si>
     <t>Infantile onset</t>
+  </si>
+  <si>
+    <t>HGNC_id</t>
+  </si>
+  <si>
+    <t>gene_symbol</t>
+  </si>
+  <si>
+    <t>CURIE</t>
+  </si>
+  <si>
+    <t>ZMYM3</t>
+  </si>
+  <si>
+    <t>HGNC:13054</t>
+  </si>
+  <si>
+    <t>optional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,11 +273,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,9 +299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,7 +339,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -405,7 +445,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -547,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,15 +595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C8C944-1B82-C845-9A43-F07268D4A1E9}">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,61 +622,67 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
       <c r="Q1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="T1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="V1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -645,262 +691,286 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
       <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R3" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
         <v>47</v>
       </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
         <v>49</v>
       </c>
-      <c r="K3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
-      </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="V5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W5" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="X5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/ZMYM3/input/ZMYM3_individuals.xlsx
+++ b/notebooks/ZMYM3/input/ZMYM3_individuals.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/ZMYM3/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/ZMYM3/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9620A195-FE31-0740-ABB4-AD6C1EC160A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657FF9F0-D9CF-FF43-9E24-98918BAE02B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{392C50DA-26D1-F247-A13E-848ED8A6E3AA}"/>
+    <workbookView xWindow="7440" yWindow="3400" windowWidth="29560" windowHeight="14480" xr2:uid="{392C50DA-26D1-F247-A13E-848ED8A6E3AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="312">
   <si>
     <t>PMID</t>
   </si>
@@ -216,13 +216,769 @@
   </si>
   <si>
     <t>optional</t>
+  </si>
+  <si>
+    <t>PMID:36586412</t>
+  </si>
+  <si>
+    <t>Deleterious, protein-altering variants in the transcriptional coregulator ZMYM3 in 27 individuals with a neurodevelopmental delay phenotype</t>
+  </si>
+  <si>
+    <t>P3Y</t>
+  </si>
+  <si>
+    <t>P18Y2M</t>
+  </si>
+  <si>
+    <t>P14Y</t>
+  </si>
+  <si>
+    <t>P21Y</t>
+  </si>
+  <si>
+    <t>P16Y</t>
+  </si>
+  <si>
+    <t>P4Y</t>
+  </si>
+  <si>
+    <t>P7Y5M</t>
+  </si>
+  <si>
+    <t>P13Y</t>
+  </si>
+  <si>
+    <t>P15Y</t>
+  </si>
+  <si>
+    <t>P6Y</t>
+  </si>
+  <si>
+    <t>P2Y6M</t>
+  </si>
+  <si>
+    <t>P19Y</t>
+  </si>
+  <si>
+    <t>P5Y</t>
+  </si>
+  <si>
+    <t>P3Y5M</t>
+  </si>
+  <si>
+    <t>P62Y</t>
+  </si>
+  <si>
+    <t>P16Y3M</t>
+  </si>
+  <si>
+    <t>Congenital onset</t>
+  </si>
+  <si>
+    <t>P8Y6M</t>
+  </si>
+  <si>
+    <t>P1Y6M</t>
+  </si>
+  <si>
+    <t>P1Y5M</t>
+  </si>
+  <si>
+    <t>c.205G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Asp69Asn</t>
+  </si>
+  <si>
+    <t>c.507A&gt;T</t>
+  </si>
+  <si>
+    <t>p.Arg169Ser</t>
+  </si>
+  <si>
+    <t>c.721G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Glu241Lys</t>
+  </si>
+  <si>
+    <t>c.905G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Arg302His</t>
+  </si>
+  <si>
+    <t>c.1183C&gt;A</t>
+  </si>
+  <si>
+    <t>p.Arg395Ser</t>
+  </si>
+  <si>
+    <t>c.1192C&gt;T</t>
+  </si>
+  <si>
+    <t>p.Pro398Ser</t>
+  </si>
+  <si>
+    <t>p.Arg441Trp</t>
+  </si>
+  <si>
+    <t>c.1322G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Arg441Gln</t>
+  </si>
+  <si>
+    <t>c.1360T&gt;C</t>
+  </si>
+  <si>
+    <t>p.Cys454Arg</t>
+  </si>
+  <si>
+    <t>c.2193G&gt;C</t>
+  </si>
+  <si>
+    <t>p.Glu731Asp</t>
+  </si>
+  <si>
+    <t>c.2794A&gt;G</t>
+  </si>
+  <si>
+    <t>p.Ile932Val</t>
+  </si>
+  <si>
+    <t>c.3371G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Arg1124Gln</t>
+  </si>
+  <si>
+    <t>c.3409T&gt;A</t>
+  </si>
+  <si>
+    <t>p.Tyr1137Asn</t>
+  </si>
+  <si>
+    <t>c.3518G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Ser1173Asn</t>
+  </si>
+  <si>
+    <t>c.3605T&gt;A</t>
+  </si>
+  <si>
+    <t>p.Val1202Asp</t>
+  </si>
+  <si>
+    <t>c.3638T&gt;C</t>
+  </si>
+  <si>
+    <t>p.Met1213Thr</t>
+  </si>
+  <si>
+    <t>c.3820C&gt;T</t>
+  </si>
+  <si>
+    <t>p.Arg1274Trp</t>
+  </si>
+  <si>
+    <t>c.3880C&gt;T</t>
+  </si>
+  <si>
+    <t>p.Arg1294Cys</t>
+  </si>
+  <si>
+    <t>c.3970C&gt;T</t>
+  </si>
+  <si>
+    <t>p.Arg1324Trp</t>
+  </si>
+  <si>
+    <t>c.4029G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Met1343Ile</t>
+  </si>
+  <si>
+    <t>c.671_674dup</t>
+  </si>
+  <si>
+    <t>p.Leu226TrpfsTer8</t>
+  </si>
+  <si>
+    <t>c.2255A&gt;G</t>
+  </si>
+  <si>
+    <t>p.Tyr752Cys</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Microcephaly</t>
+  </si>
+  <si>
+    <t>Constipation</t>
+  </si>
+  <si>
+    <t>Joint hypermobility</t>
+  </si>
+  <si>
+    <t>Gastrointestinal dysmotility</t>
+  </si>
+  <si>
+    <t>Heat intolerance</t>
+  </si>
+  <si>
+    <t>Kyphosis</t>
+  </si>
+  <si>
+    <t>Madelung deformity</t>
+  </si>
+  <si>
+    <t>Abnormal heart morphology</t>
+  </si>
+  <si>
+    <t>Pancreatic cysts</t>
+  </si>
+  <si>
+    <t>Short stature</t>
+  </si>
+  <si>
+    <t>Myopia</t>
+  </si>
+  <si>
+    <t>Retinopathy</t>
+  </si>
+  <si>
+    <t>Volvulus</t>
+  </si>
+  <si>
+    <t>Kyphoscoliosis</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>Scoliosis</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>HP:0000252</t>
+  </si>
+  <si>
+    <t>HP:0002019</t>
+  </si>
+  <si>
+    <t>HP:0001382</t>
+  </si>
+  <si>
+    <t>HP:0002579</t>
+  </si>
+  <si>
+    <t>HP:0002046</t>
+  </si>
+  <si>
+    <t>HP:0002808</t>
+  </si>
+  <si>
+    <t>HP:0003067</t>
+  </si>
+  <si>
+    <t>HP:0001627</t>
+  </si>
+  <si>
+    <t>HP:0001737</t>
+  </si>
+  <si>
+    <t>HP:0004322</t>
+  </si>
+  <si>
+    <t>HP:0000545</t>
+  </si>
+  <si>
+    <t>HP:0000488</t>
+  </si>
+  <si>
+    <t>HP:0002580</t>
+  </si>
+  <si>
+    <t>HP:0002751</t>
+  </si>
+  <si>
+    <t>HP:0012531</t>
+  </si>
+  <si>
+    <t>HP:0002650</t>
+  </si>
+  <si>
+    <t>HP:0012378</t>
+  </si>
+  <si>
+    <t>Gastroesophageal reflux</t>
+  </si>
+  <si>
+    <t>HP:0002020</t>
+  </si>
+  <si>
+    <t>Renal cyst</t>
+  </si>
+  <si>
+    <t>Ectopic kidney</t>
+  </si>
+  <si>
+    <t>Ambiguous genitalia</t>
+  </si>
+  <si>
+    <t>Cryptorchidism</t>
+  </si>
+  <si>
+    <t>Enuresis</t>
+  </si>
+  <si>
+    <t>Vesicoureteral reflux</t>
+  </si>
+  <si>
+    <t>Hydronephrosis</t>
+  </si>
+  <si>
+    <t>Pyelonephritis</t>
+  </si>
+  <si>
+    <t>HP:0000107</t>
+  </si>
+  <si>
+    <t>HP:0000086</t>
+  </si>
+  <si>
+    <t>HP:0000062</t>
+  </si>
+  <si>
+    <t>HP:0000028</t>
+  </si>
+  <si>
+    <t>HP:0000805</t>
+  </si>
+  <si>
+    <t>HP:0000076</t>
+  </si>
+  <si>
+    <t>HP:0000126</t>
+  </si>
+  <si>
+    <t>HP:0012330</t>
+  </si>
+  <si>
+    <t>Delayed speech and language development</t>
+  </si>
+  <si>
+    <t>HP:0000750</t>
+  </si>
+  <si>
+    <t>Motor delay</t>
+  </si>
+  <si>
+    <t>HP:0001270</t>
+  </si>
+  <si>
+    <t>Intellectual disability</t>
+  </si>
+  <si>
+    <t>HP:0001249</t>
+  </si>
+  <si>
+    <t>Autistic behavior</t>
+  </si>
+  <si>
+    <t>HP:0000729</t>
+  </si>
+  <si>
+    <t>Atypical behavior</t>
+  </si>
+  <si>
+    <t>HP:0000708</t>
+  </si>
+  <si>
+    <t>Axial hypotonia</t>
+  </si>
+  <si>
+    <t>HP:0008936</t>
+  </si>
+  <si>
+    <t>Seizure</t>
+  </si>
+  <si>
+    <t>HP:0001250</t>
+  </si>
+  <si>
+    <t>Fetal pericardial effusion</t>
+  </si>
+  <si>
+    <t>HP:0025671</t>
+  </si>
+  <si>
+    <t>Torticollis</t>
+  </si>
+  <si>
+    <t>HP:0000473</t>
+  </si>
+  <si>
+    <t>P20D</t>
+  </si>
+  <si>
+    <t>Midface retrusion</t>
+  </si>
+  <si>
+    <t>HP:0011800</t>
+  </si>
+  <si>
+    <t>Upslanted palpebral fissure</t>
+  </si>
+  <si>
+    <t>HP:0000582</t>
+  </si>
+  <si>
+    <t>Wide nasal bridge</t>
+  </si>
+  <si>
+    <t>HP:0000431</t>
+  </si>
+  <si>
+    <t>Single transverse palmar crease</t>
+  </si>
+  <si>
+    <t>HP:0000954</t>
+  </si>
+  <si>
+    <t>Clinodactyly of the 5th finger</t>
+  </si>
+  <si>
+    <t>HP:0004209</t>
+  </si>
+  <si>
+    <t>Hip joint hypermobility</t>
+  </si>
+  <si>
+    <t>HP:0045087</t>
+  </si>
+  <si>
+    <t>Hypotonia</t>
+  </si>
+  <si>
+    <t>HP:0001252</t>
+  </si>
+  <si>
+    <t>Prominent forehead</t>
+  </si>
+  <si>
+    <t>HP:0011220</t>
+  </si>
+  <si>
+    <t>Deeply set eye</t>
+  </si>
+  <si>
+    <t>HP:0000490</t>
+  </si>
+  <si>
+    <t>Depressed nasal bridge</t>
+  </si>
+  <si>
+    <t>HP:0005280</t>
+  </si>
+  <si>
+    <t>Bulbous nose</t>
+  </si>
+  <si>
+    <t>HP:0000414</t>
+  </si>
+  <si>
+    <t>Macrocephaly</t>
+  </si>
+  <si>
+    <t>HP:0000256</t>
+  </si>
+  <si>
+    <t>Synophrys</t>
+  </si>
+  <si>
+    <t>HP:0000664</t>
+  </si>
+  <si>
+    <t>P4M</t>
+  </si>
+  <si>
+    <t>Individual 1</t>
+  </si>
+  <si>
+    <t>Individual 21</t>
+  </si>
+  <si>
+    <t>Individual 2</t>
+  </si>
+  <si>
+    <t>Individual 3</t>
+  </si>
+  <si>
+    <t>Individual 4a</t>
+  </si>
+  <si>
+    <t>Individual 4b</t>
+  </si>
+  <si>
+    <t>Individual 5</t>
+  </si>
+  <si>
+    <t>Individual 22</t>
+  </si>
+  <si>
+    <t>Individual 6</t>
+  </si>
+  <si>
+    <t>Individual 7</t>
+  </si>
+  <si>
+    <t>Individual 8</t>
+  </si>
+  <si>
+    <t>Individual 23</t>
+  </si>
+  <si>
+    <t>Individual 9a</t>
+  </si>
+  <si>
+    <t>Individual 9b</t>
+  </si>
+  <si>
+    <t>Individual 10</t>
+  </si>
+  <si>
+    <t>Individual 11</t>
+  </si>
+  <si>
+    <t>Individual 12</t>
+  </si>
+  <si>
+    <t>Individual 24</t>
+  </si>
+  <si>
+    <t>Individual 13</t>
+  </si>
+  <si>
+    <t>Individual 14</t>
+  </si>
+  <si>
+    <t>Individual 15</t>
+  </si>
+  <si>
+    <t>Individual 16</t>
+  </si>
+  <si>
+    <t>Individual 25</t>
+  </si>
+  <si>
+    <t>Individual 17</t>
+  </si>
+  <si>
+    <t>Individual 18</t>
+  </si>
+  <si>
+    <t>Individual 19</t>
+  </si>
+  <si>
+    <t>Individual 20</t>
+  </si>
+  <si>
+    <t>Fetal onset</t>
+  </si>
+  <si>
+    <t>Strabismus</t>
+  </si>
+  <si>
+    <t>HP:0000486</t>
+  </si>
+  <si>
+    <t>P2Y</t>
+  </si>
+  <si>
+    <t>Coarse facial features</t>
+  </si>
+  <si>
+    <t>HP:0000280</t>
+  </si>
+  <si>
+    <t>HP:0000325</t>
+  </si>
+  <si>
+    <t>Long palpebral fissure</t>
+  </si>
+  <si>
+    <t>HP:0000637</t>
+  </si>
+  <si>
+    <t>Hypertelorism</t>
+  </si>
+  <si>
+    <t>HP:0000316</t>
+  </si>
+  <si>
+    <t>Retrognathia</t>
+  </si>
+  <si>
+    <t>HP:0000278</t>
+  </si>
+  <si>
+    <t>Thin vermilion border</t>
+  </si>
+  <si>
+    <t>HP:0000233</t>
+  </si>
+  <si>
+    <t>Long face</t>
+  </si>
+  <si>
+    <t>HP:0000276</t>
+  </si>
+  <si>
+    <t>High anterior hairline</t>
+  </si>
+  <si>
+    <t>HP:0009890</t>
+  </si>
+  <si>
+    <t>Long philtrum</t>
+  </si>
+  <si>
+    <t>HP:0000343</t>
+  </si>
+  <si>
+    <t>Downslanted palpebral fissures</t>
+  </si>
+  <si>
+    <t>HP:0000494</t>
+  </si>
+  <si>
+    <t>Low-set ears</t>
+  </si>
+  <si>
+    <t>HP:0000369</t>
+  </si>
+  <si>
+    <t>Wide intermamillary distance</t>
+  </si>
+  <si>
+    <t>HP:0006610</t>
+  </si>
+  <si>
+    <t>P3Y6M</t>
+  </si>
+  <si>
+    <t>Mandibular prognathia</t>
+  </si>
+  <si>
+    <t>HP:0000303</t>
+  </si>
+  <si>
+    <t>Thick nasal alae</t>
+  </si>
+  <si>
+    <t>HP:0009928</t>
+  </si>
+  <si>
+    <t>P8M</t>
+  </si>
+  <si>
+    <t>Neonatal onset</t>
+  </si>
+  <si>
+    <t>Increased nuchal translucency</t>
+  </si>
+  <si>
+    <t>HP:0010880</t>
+  </si>
+  <si>
+    <t>Late first trimester onset</t>
+  </si>
+  <si>
+    <t>deceased</t>
+  </si>
+  <si>
+    <t>yes/no/na</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Second trimester onset</t>
+  </si>
+  <si>
+    <t>P1Y1M</t>
+  </si>
+  <si>
+    <t>Epicanthus</t>
+  </si>
+  <si>
+    <t>HP:0000286</t>
+  </si>
+  <si>
+    <t>Telecanthus</t>
+  </si>
+  <si>
+    <t>HP:0000506</t>
+  </si>
+  <si>
+    <t>Childhood onset</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Triangular face</t>
+  </si>
+  <si>
+    <t>III-1</t>
+  </si>
+  <si>
+    <t>III-2</t>
+  </si>
+  <si>
+    <t>III-3</t>
+  </si>
+  <si>
+    <t>Small for gestational age</t>
+  </si>
+  <si>
+    <t>HP:0001518</t>
+  </si>
+  <si>
+    <t>Aortic regurgitation</t>
+  </si>
+  <si>
+    <t>HP:0001659</t>
+  </si>
+  <si>
+    <t>Aortic valve stenosis</t>
+  </si>
+  <si>
+    <t>HP:0001650</t>
+  </si>
+  <si>
+    <t>P8Y8M</t>
+  </si>
+  <si>
+    <t>P7Y3M</t>
+  </si>
+  <si>
+    <t>NP_005087.1:p.(Arg441Trp)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,6 +1008,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -261,7 +1024,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -269,11 +1032,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -281,6 +1059,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,15 +1383,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C8C944-1B82-C845-9A43-F07268D4A1E9}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:CQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="AY14" workbookViewId="0">
+      <selection activeCell="BN34" sqref="BN34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,40 +1438,250 @@
         <v>11</v>
       </c>
       <c r="O1" t="s">
+        <v>288</v>
+      </c>
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" t="s">
+        <v>255</v>
+      </c>
+      <c r="T1" t="s">
+        <v>299</v>
+      </c>
+      <c r="U1" t="s">
+        <v>266</v>
+      </c>
+      <c r="V1" t="s">
+        <v>268</v>
+      </c>
+      <c r="W1" t="s">
+        <v>262</v>
+      </c>
+      <c r="X1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AW1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AX1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="AY1" t="s">
         <v>37</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AZ1" t="s">
         <v>39</v>
       </c>
-      <c r="W1" t="s">
+      <c r="BA1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" t="s">
+      <c r="BB1" t="s">
+        <v>305</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>307</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="BF1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH1" t="s">
         <v>45</v>
       </c>
+      <c r="BI1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BU1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BV1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BW1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="BX1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="BY1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="CE1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="CH1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="CI1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="CJ1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CK1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="CM1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="CN1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="CO1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="CP1" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="CQ1" s="8" t="s">
+        <v>303</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -724,40 +1725,250 @@
         <v>15</v>
       </c>
       <c r="O2" t="s">
+        <v>289</v>
+      </c>
+      <c r="P2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
-        <v>17</v>
-      </c>
       <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>198</v>
+      </c>
+      <c r="S2" t="s">
+        <v>256</v>
+      </c>
+      <c r="T2" t="s">
+        <v>257</v>
+      </c>
+      <c r="U2" t="s">
+        <v>267</v>
+      </c>
+      <c r="V2" t="s">
+        <v>269</v>
+      </c>
+      <c r="W2" t="s">
+        <v>263</v>
+      </c>
+      <c r="X2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AV2" t="s">
         <v>27</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AW2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AX2" t="s">
         <v>33</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="AY2" t="s">
         <v>38</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AZ2" t="s">
         <v>40</v>
       </c>
-      <c r="W2" t="s">
+      <c r="BA2" t="s">
         <v>42</v>
       </c>
-      <c r="X2" t="s">
+      <c r="BB2" t="s">
+        <v>306</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>308</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BE2" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="BF2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH2" t="s">
         <v>46</v>
       </c>
+      <c r="BI2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>153</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>154</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>155</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>161</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>172</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>176</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>177</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>304</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:95" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -798,40 +2009,43 @@
         <v>50</v>
       </c>
       <c r="O3" t="s">
+        <v>298</v>
+      </c>
+      <c r="P3" t="s">
         <v>49</v>
       </c>
-      <c r="P3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -869,40 +2083,43 @@
         <v>52</v>
       </c>
       <c r="O4" t="s">
+        <v>298</v>
+      </c>
+      <c r="P4" t="s">
         <v>49</v>
       </c>
-      <c r="P4" t="s">
-        <v>17</v>
-      </c>
       <c r="Q4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW4" t="s">
         <v>28</v>
       </c>
-      <c r="R4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="AX4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -940,36 +2157,6435 @@
         <v>51</v>
       </c>
       <c r="O5" t="s">
+        <v>298</v>
+      </c>
+      <c r="P5" t="s">
         <v>49</v>
       </c>
-      <c r="P5" t="s">
-        <v>17</v>
-      </c>
       <c r="Q5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" t="s">
-        <v>17</v>
-      </c>
-      <c r="V5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W5" t="s">
-        <v>31</v>
-      </c>
-      <c r="X5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>298</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="s">
+        <v>251</v>
+      </c>
+      <c r="N7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>251</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>34</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="s">
+        <v>223</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>298</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>34</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>223</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>298</v>
+      </c>
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
+        <v>298</v>
+      </c>
+      <c r="P10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" t="s">
+        <v>254</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" t="s">
+        <v>298</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" t="s">
+        <v>298</v>
+      </c>
+      <c r="P12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>34</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" t="s">
+        <v>298</v>
+      </c>
+      <c r="P13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>34</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>34</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" t="s">
+        <v>298</v>
+      </c>
+      <c r="P14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W14" t="s">
+        <v>34</v>
+      </c>
+      <c r="X14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>34</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>34</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" t="s">
+        <v>298</v>
+      </c>
+      <c r="P15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" t="s">
+        <v>34</v>
+      </c>
+      <c r="W15" t="s">
+        <v>31</v>
+      </c>
+      <c r="X15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" t="s">
+        <v>298</v>
+      </c>
+      <c r="P16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" t="s">
+        <v>223</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" t="s">
+        <v>298</v>
+      </c>
+      <c r="P17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>34</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18" t="s">
+        <v>278</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" t="s">
+        <v>298</v>
+      </c>
+      <c r="P18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>34</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>34</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>34</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" t="s">
+        <v>283</v>
+      </c>
+      <c r="N19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" t="s">
+        <v>298</v>
+      </c>
+      <c r="P19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" t="s">
+        <v>284</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>298</v>
+      </c>
+      <c r="P20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>34</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>34</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>34</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" t="s">
+        <v>298</v>
+      </c>
+      <c r="P21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" t="s">
+        <v>31</v>
+      </c>
+      <c r="W21" t="s">
+        <v>31</v>
+      </c>
+      <c r="X21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>34</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>34</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" t="s">
+        <v>114</v>
+      </c>
+      <c r="M22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22" t="s">
+        <v>298</v>
+      </c>
+      <c r="P22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W22" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>34</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" t="s">
+        <v>287</v>
+      </c>
+      <c r="N23" t="s">
+        <v>291</v>
+      </c>
+      <c r="O23" t="s">
+        <v>290</v>
+      </c>
+      <c r="P23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W23" t="s">
+        <v>34</v>
+      </c>
+      <c r="X23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>17</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>17</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>17</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>17</v>
+      </c>
+      <c r="CK23" t="s">
+        <v>17</v>
+      </c>
+      <c r="CL23" t="s">
+        <v>17</v>
+      </c>
+      <c r="CM23" t="s">
+        <v>17</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CP23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" t="s">
+        <v>292</v>
+      </c>
+      <c r="N24" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" t="s">
+        <v>298</v>
+      </c>
+      <c r="P24" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" t="s">
+        <v>31</v>
+      </c>
+      <c r="W24" t="s">
+        <v>31</v>
+      </c>
+      <c r="X24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>34</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>34</v>
+      </c>
+      <c r="CE24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" t="s">
+        <v>284</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" t="s">
+        <v>298</v>
+      </c>
+      <c r="P25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" t="s">
+        <v>31</v>
+      </c>
+      <c r="W25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG25" t="s">
+        <v>34</v>
+      </c>
+      <c r="CH25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK25" t="s">
+        <v>17</v>
+      </c>
+      <c r="CL25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" t="s">
+        <v>124</v>
+      </c>
+      <c r="M26" t="s">
+        <v>53</v>
+      </c>
+      <c r="N26" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" t="s">
+        <v>34</v>
+      </c>
+      <c r="T26" t="s">
+        <v>31</v>
+      </c>
+      <c r="U26" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26" t="s">
+        <v>31</v>
+      </c>
+      <c r="W26" t="s">
+        <v>31</v>
+      </c>
+      <c r="X26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>34</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK26" t="s">
+        <v>17</v>
+      </c>
+      <c r="CL26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" t="s">
+        <v>74</v>
+      </c>
+      <c r="O27" t="s">
+        <v>298</v>
+      </c>
+      <c r="P27" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27" t="s">
+        <v>31</v>
+      </c>
+      <c r="W27" t="s">
+        <v>31</v>
+      </c>
+      <c r="X27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>34</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>34</v>
+      </c>
+      <c r="CC27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK27" t="s">
+        <v>17</v>
+      </c>
+      <c r="CL27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN27" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" t="s">
+        <v>297</v>
+      </c>
+      <c r="N28" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" t="s">
+        <v>298</v>
+      </c>
+      <c r="P28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" t="s">
+        <v>31</v>
+      </c>
+      <c r="W28" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O29" t="s">
+        <v>298</v>
+      </c>
+      <c r="P29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" t="s">
+        <v>31</v>
+      </c>
+      <c r="S29" t="s">
+        <v>31</v>
+      </c>
+      <c r="T29" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" t="s">
+        <v>31</v>
+      </c>
+      <c r="V29" t="s">
+        <v>31</v>
+      </c>
+      <c r="W29" t="s">
+        <v>31</v>
+      </c>
+      <c r="X29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>34</v>
+      </c>
+      <c r="BW29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN29" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" t="s">
+        <v>98</v>
+      </c>
+      <c r="M30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" t="s">
+        <v>298</v>
+      </c>
+      <c r="P30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" t="s">
+        <v>31</v>
+      </c>
+      <c r="S30" t="s">
+        <v>31</v>
+      </c>
+      <c r="T30" t="s">
+        <v>31</v>
+      </c>
+      <c r="U30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V30" t="s">
+        <v>31</v>
+      </c>
+      <c r="W30" t="s">
+        <v>31</v>
+      </c>
+      <c r="X30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>34</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>34</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY30" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>34</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC30" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE30" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF30" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG30" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH30" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI30" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ30" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK30" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL30" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM30" t="s">
+        <v>34</v>
+      </c>
+      <c r="CN30" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" t="s">
+        <v>108</v>
+      </c>
+      <c r="M31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" t="s">
+        <v>298</v>
+      </c>
+      <c r="P31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" t="s">
+        <v>31</v>
+      </c>
+      <c r="T31" t="s">
+        <v>31</v>
+      </c>
+      <c r="U31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V31" t="s">
+        <v>31</v>
+      </c>
+      <c r="W31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN31" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>246</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" t="s">
+        <v>118</v>
+      </c>
+      <c r="M32" t="s">
+        <v>53</v>
+      </c>
+      <c r="N32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O32" t="s">
+        <v>298</v>
+      </c>
+      <c r="P32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>300</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" t="s">
+        <v>311</v>
+      </c>
+      <c r="M33" t="s">
+        <v>78</v>
+      </c>
+      <c r="N33" t="s">
+        <v>50</v>
+      </c>
+      <c r="O33" t="s">
+        <v>298</v>
+      </c>
+      <c r="P33" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" t="s">
+        <v>31</v>
+      </c>
+      <c r="T33" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33" t="s">
+        <v>31</v>
+      </c>
+      <c r="V33" t="s">
+        <v>31</v>
+      </c>
+      <c r="W33" t="s">
+        <v>31</v>
+      </c>
+      <c r="X33" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>34</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>301</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" t="s">
+        <v>78</v>
+      </c>
+      <c r="N34" t="s">
+        <v>309</v>
+      </c>
+      <c r="O34" t="s">
+        <v>298</v>
+      </c>
+      <c r="P34" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R34" t="s">
+        <v>31</v>
+      </c>
+      <c r="S34" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34" t="s">
+        <v>31</v>
+      </c>
+      <c r="V34" t="s">
+        <v>31</v>
+      </c>
+      <c r="W34" t="s">
+        <v>31</v>
+      </c>
+      <c r="X34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>34</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>302</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" t="s">
+        <v>78</v>
+      </c>
+      <c r="N35" t="s">
+        <v>310</v>
+      </c>
+      <c r="O35" t="s">
+        <v>298</v>
+      </c>
+      <c r="P35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>17</v>
+      </c>
+      <c r="R35" t="s">
+        <v>31</v>
+      </c>
+      <c r="S35" t="s">
+        <v>31</v>
+      </c>
+      <c r="T35" t="s">
+        <v>31</v>
+      </c>
+      <c r="U35" t="s">
+        <v>31</v>
+      </c>
+      <c r="V35" t="s">
+        <v>31</v>
+      </c>
+      <c r="W35" t="s">
+        <v>31</v>
+      </c>
+      <c r="X35" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>34</v>
+      </c>
+      <c r="CQ35" t="s">
         <v>34</v>
       </c>
     </row>
